--- a/NEW HR/CAGUITLA, ELSA.xlsx
+++ b/NEW HR/CAGUITLA, ELSA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>PICNIC GROVE</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>7/18-21/2023</t>
   </si>
 </sst>
 </file>
@@ -688,17 +694,14 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -712,23 +715,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,7 +1425,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1468,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1532,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1592,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1658,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1721,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1819,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1878,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1943,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1986,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2061,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2247,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2313,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2371,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2437,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2493,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2568,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2611,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2677,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2733,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2831,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2894,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,10 +3370,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,34 +3395,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3428,23 +3434,23 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3470,18 +3476,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3528,7 +3534,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3538,7 +3544,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4936,15 +4942,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4952,15 +4962,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4968,15 +4982,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4984,7 +5002,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -5833,17 +5853,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5878,10 +5898,10 @@
   </sheetPr>
   <dimension ref="A2:K110"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5903,41 +5923,41 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>CAGUITLA, ELSA</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -5949,24 +5969,24 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5992,18 +6012,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6060,7 +6080,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.7250000000000014</v>
+        <v>0.72500000000000142</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6129,7 +6149,7 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="61">
+      <c r="K12" s="49">
         <v>43137</v>
       </c>
     </row>
@@ -6151,7 +6171,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="61">
+      <c r="K13" s="49">
         <v>43183</v>
       </c>
     </row>
@@ -6173,7 +6193,7 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="61">
+      <c r="K14" s="49">
         <v>43149</v>
       </c>
     </row>
@@ -6415,7 +6435,7 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="61">
+      <c r="K25" s="49">
         <v>43439</v>
       </c>
     </row>
@@ -6437,10 +6457,10 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="61"/>
+      <c r="K26" s="49"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="20"/>
@@ -6455,7 +6475,7 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="61"/>
+      <c r="K27" s="49"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
@@ -6477,7 +6497,7 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="61">
+      <c r="K28" s="49">
         <v>43502</v>
       </c>
     </row>
@@ -6545,7 +6565,7 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="61">
+      <c r="K31" s="49">
         <v>43684</v>
       </c>
     </row>
@@ -6615,7 +6635,7 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="61">
+      <c r="K34" s="49">
         <v>43804</v>
       </c>
     </row>
@@ -6640,7 +6660,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="20"/>
@@ -6774,7 +6794,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="20"/>
@@ -6860,7 +6880,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="20"/>
@@ -6948,7 +6968,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="20"/>
@@ -6990,8 +7010,12 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="41">
+        <v>45132</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
@@ -7000,10 +7024,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="39"/>
+      <c r="H52" s="39">
+        <v>4</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
@@ -7997,17 +8025,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8090,12 +8118,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/CAGUITLA, ELSA.xlsx
+++ b/NEW HR/CAGUITLA, ELSA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>7/18-21/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>9/5-8,12-15/2023</t>
+  </si>
+  <si>
+    <t>10/3-6,10-12/2023</t>
   </si>
 </sst>
 </file>
@@ -3534,7 +3543,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3544,7 +3553,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5006,13 +5015,15 @@
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5901,7 +5912,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6070,7 +6081,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.317</v>
+        <v>0.31700000000000017</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7034,10 +7045,16 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="41">
+        <v>45139</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="39">
+        <v>8</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -7047,13 +7064,19 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>7</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -7063,7 +7086,9 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
